--- a/144F20/Topic 2/Topic2DQ1Template.xlsx
+++ b/144F20/Topic 2/Topic2DQ1Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0439B659-61E7-4BC1-A041-CADE89C701B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D18C1BE-B500-4DE3-849D-AF0FC1888879}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="20220" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Original Amount</t>
   </si>
@@ -165,6 +165,53 @@
   </si>
   <si>
     <t>Show two decimals</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sheet is self checking. If you do not use a formula or your answers is incorrect, even by a very small amount, then your answer will show in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. If you have a correct formula, then your answer will show in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -174,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +253,22 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -372,12 +435,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -415,15 +670,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -432,16 +687,59 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -449,154 +747,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b/>
@@ -742,6 +893,13 @@
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
   </dxfs>
@@ -1020,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1037,36 +1195,37 @@
     <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1"/>
     <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1">
-      <c r="G3" s="20" t="s">
+    <row r="3" spans="1:8" ht="15.6" thickTop="1" thickBot="1">
+      <c r="G3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1077,7 +1236,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="32">
         <f ca="1">MAX(ROUND(100*Random!D12,2),ROUND(100*Random!D20,2))</f>
         <v>58.82</v>
       </c>
@@ -1085,9 +1244,9 @@
         <f ca="1">MIN(ROUND(100*Random!D12,2),ROUND(100*Random!D20,2))</f>
         <v>16.27</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="33"/>
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +1255,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="32">
         <f ca="1">MIN(ROUND(100*Random!D13,2),ROUND(100*Random!D21,2))</f>
         <v>19.649999999999999</v>
       </c>
@@ -1104,9 +1263,9 @@
         <f ca="1">MAX(ROUND(100*Random!D13,2),ROUND(100*Random!D21,2))</f>
         <v>68.8</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="33"/>
       <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1274,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="24"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1">
         <f ca="1">ROUND(100*Random!D22,2)</f>
         <v>17.39</v>
@@ -1124,8 +1283,8 @@
         <f ca="1">ROUND(SIGN(1/2-Random!C27)*30*Random!D27,2)</f>
         <v>10.42</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="33"/>
       <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1134,17 +1293,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1">
-      <c r="A8" s="1">
+      <c r="A8" s="32">
         <f ca="1">ROUND(100*Random!D15,2)</f>
         <v>66.45</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1">
         <f ca="1">ROUND(SIGN(1/2-Random!C28)*30*Random!D28,2)</f>
         <v>-20.8</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="33"/>
       <c r="G8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1153,76 +1312,98 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickTop="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="1">
         <f ca="1">ROUND(100*Random!D24,2)</f>
         <v>63.4</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="1">
         <f ca="1">ROUND(SIGN(1/2-Random!$C20)*Random!$D30,4)</f>
         <v>-0.59740000000000004</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="32">
         <f ca="1">ROUND(100*Random!D17,2)</f>
         <v>79.09</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="1">
         <f ca="1">ROUND(SIGN(1/2-Random!$C21)*Random!$D31,4)</f>
         <v>0.2324</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="24"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1">
         <f ca="1">ROUND(100*Random!D26,2)</f>
         <v>66.790000000000006</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="11">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="35">
         <f ca="1">ROUND(SIGN(1/2-Random!$C22)*Random!$D32,4)</f>
         <v>0.48530000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="A12" s="32">
         <f ca="1">ROUND(100*Random!D19,2)</f>
         <v>40.700000000000003</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="11">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="35">
         <f ca="1">ROUND(SIGN(1/2-Random!$C23)*Random!$D33,4)</f>
         <v>-0.16739999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:8" ht="15" thickBot="1">
+      <c r="A13" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="39" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1"/>
+    <row r="15" spans="1:8" ht="14.4" customHeight="1">
+      <c r="B15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="2:5" ht="15" thickBot="1">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Lkx97IP//uTA48gXxQTJTIKX/lpdbIH/4Yb00Oj/BlTYuBsdqj3QGitCnOD0JG+ZeXBD+JmAgStuuxMlm1GojQ==" saltValue="nRop919RuIG/njVUZu7fnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="3">
+  <sheetProtection algorithmName="SHA-512" hashValue="1dImC2OEJzO2lLinEVoFnHx40/nh1MHC5kGolphHRV2mlIyibkaKpNT9Lis3avdFq14Fo/QvRNEoOiIR+M/9qw==" saltValue="NBPOi3dfsA4G31QDcGB+Ww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="4">
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B15:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1528,177 +1709,177 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <f ca="1">Percents!A5</f>
         <v>58.82</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <f ca="1">Percents!B5</f>
         <v>16.27</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <f ca="1">B5-A5</f>
         <v>-42.55</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <f ca="1">C5/A5</f>
         <v>-0.72339340360421622</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <f ca="1">D5</f>
         <v>-0.72339340360421622</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <f ca="1">Percents!A6</f>
         <v>19.649999999999999</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <f ca="1">Percents!B6</f>
         <v>68.8</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <f ca="1">B6-A6</f>
         <v>49.15</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <f ca="1">C6/A6</f>
         <v>2.5012722646310435</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <f t="shared" ref="E6:E10" ca="1" si="0">D6</f>
         <v>2.5012722646310435</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <f ca="1">B7-C7</f>
         <v>6.9700000000000006</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <f ca="1">Percents!B7</f>
         <v>17.39</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <f ca="1">Percents!C7</f>
         <v>10.42</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <f ca="1">C7/A7</f>
         <v>1.4949784791965566</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>1.4949784791965566</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <f ca="1">Percents!A8</f>
         <v>66.45</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <f ca="1">A8+C8</f>
         <v>45.650000000000006</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <f ca="1">Percents!C8</f>
         <v>-20.8</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <f ca="1">C8/A8</f>
         <v>-0.31301730624529722</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>-0.31301730624529722</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <f ca="1">B9/(D9+1)</f>
         <v>157.47640337804273</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <f ca="1">Percents!B9</f>
         <v>63.4</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <f ca="1">B9-A9</f>
         <v>-94.076403378042727</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <f ca="1">Percents!D9</f>
         <v>-0.59740000000000004</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>-0.59740000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <f ca="1">Percents!A10</f>
         <v>79.09</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <f ca="1">A10*(1+D10)</f>
         <v>97.470516000000003</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <f t="shared" ref="C10:C12" ca="1" si="1">B10-A10</f>
         <v>18.380516</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <f ca="1">Percents!D10</f>
         <v>0.2324</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>0.2324</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <f ca="1">B11/(1+E11)</f>
         <v>44.967346663973608</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <f ca="1">Percents!B11</f>
         <v>66.790000000000006</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <f t="shared" ca="1" si="1"/>
         <v>21.822653336026399</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <f ca="1">C11/A11</f>
         <v>0.48530000000000018</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <f ca="1">Percents!E11</f>
         <v>0.48530000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14">
+      <c r="A12" s="12">
         <f ca="1">Percents!A12</f>
         <v>40.700000000000003</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <f ca="1">A12*(1+E12)</f>
         <v>33.88682</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <f t="shared" ca="1" si="1"/>
         <v>-6.8131800000000027</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <f ca="1">C12/A12</f>
         <v>-0.16740000000000005</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <f ca="1">Percents!E12</f>
         <v>-0.16739999999999999</v>
       </c>

--- a/144F20/Topic 2/Topic2DQ1Template.xlsx
+++ b/144F20/Topic 2/Topic2DQ1Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D18C1BE-B500-4DE3-849D-AF0FC1888879}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC5E53D-7024-4E39-AFE0-CD738A31B9B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="20220" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="144" windowWidth="17916" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percents" sheetId="1" r:id="rId1"/>
@@ -218,8 +218,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -632,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -679,6 +680,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -686,6 +703,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -714,32 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1181,7 +1185,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1197,35 +1201,35 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1"/>
     <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" thickTop="1" thickBot="1">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1236,7 +1240,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="32">
+      <c r="A5" s="21">
         <f ca="1">MAX(ROUND(100*Random!D12,2),ROUND(100*Random!D20,2))</f>
         <v>58.82</v>
       </c>
@@ -1245,8 +1249,8 @@
         <v>16.27</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="33"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="22"/>
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1259,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="32">
+      <c r="A6" s="21">
         <f ca="1">MIN(ROUND(100*Random!D13,2),ROUND(100*Random!D21,2))</f>
         <v>19.649999999999999</v>
       </c>
@@ -1265,7 +1269,7 @@
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="33"/>
+      <c r="E6" s="22"/>
       <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1278,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="34"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="1">
         <f ca="1">ROUND(100*Random!D22,2)</f>
         <v>17.39</v>
@@ -1284,7 +1288,7 @@
         <v>10.42</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="33"/>
+      <c r="E7" s="22"/>
       <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1297,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1">
-      <c r="A8" s="32">
+      <c r="A8" s="21">
         <f ca="1">ROUND(100*Random!D15,2)</f>
         <v>66.45</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>-20.8</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="33"/>
+      <c r="E8" s="22"/>
       <c r="G8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1316,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickTop="1">
-      <c r="A9" s="34"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="1">
         <f ca="1">ROUND(100*Random!D24,2)</f>
         <v>63.4</v>
@@ -1322,10 +1326,10 @@
         <f ca="1">ROUND(SIGN(1/2-Random!$C20)*Random!$D30,4)</f>
         <v>-0.59740000000000004</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="32">
+      <c r="A10" s="21">
         <f ca="1">ROUND(100*Random!D17,2)</f>
         <v>79.09</v>
       </c>
@@ -1335,70 +1339,70 @@
         <f ca="1">ROUND(SIGN(1/2-Random!$C21)*Random!$D31,4)</f>
         <v>0.2324</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="34"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="1">
         <f ca="1">ROUND(100*Random!D26,2)</f>
         <v>66.790000000000006</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="35">
+      <c r="E11" s="24">
         <f ca="1">ROUND(SIGN(1/2-Random!$C22)*Random!$D32,4)</f>
         <v>0.48530000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="32">
+      <c r="A12" s="21">
         <f ca="1">ROUND(100*Random!D19,2)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="35">
+      <c r="E12" s="24">
         <f ca="1">ROUND(SIGN(1/2-Random!$C23)*Random!$D33,4)</f>
         <v>-0.16739999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1"/>
     <row r="15" spans="1:8" ht="14.4" customHeight="1">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1dImC2OEJzO2lLinEVoFnHx40/nh1MHC5kGolphHRV2mlIyibkaKpNT9Lis3avdFq14Fo/QvRNEoOiIR+M/9qw==" saltValue="NBPOi3dfsA4G31QDcGB+Ww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="4">
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A2:C2"/>

--- a/144F20/Topic 2/Topic2DQ1Template.xlsx
+++ b/144F20/Topic 2/Topic2DQ1Template.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC5E53D-7024-4E39-AFE0-CD738A31B9B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2831CAE7-2A0B-413A-880A-AC94D689AD7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="144" windowWidth="17916" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percents" sheetId="1" r:id="rId1"/>
-    <sheet name="Solution" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Random" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Solution" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Random" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{E42251D7-B26D-493B-AB47-FC9D5E718532}" mergeInterval="0" personalView="1" xWindow="61" yWindow="61" windowWidth="1733" windowHeight="952" activeSheetId="1" showComments="commIndAndComment"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -220,7 +223,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -696,6 +699,9 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -742,9 +748,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -917,6 +920,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7F73379B-E737-4580-8C18-9CF0D1DE9E0F}">
+  <header guid="{7F73379B-E737-4580-8C18-9CF0D1DE9E0F}" dateTime="2020-09-25T14:19:12" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1201,20 +1224,20 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1"/>
     <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" thickTop="1" thickBot="1">
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="18" t="s">
@@ -1249,7 +1272,7 @@
         <v>16.27</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="43"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="22"/>
       <c r="G5" s="4" t="s">
         <v>7</v>
@@ -1368,11 +1391,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="25" t="s">
         <v>41</v>
       </c>
@@ -1382,27 +1405,34 @@
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1"/>
     <row r="15" spans="1:8" ht="14.4" customHeight="1">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1">
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <customSheetViews>
+    <customSheetView guid="{E42251D7-B26D-493B-AB47-FC9D5E718532}">
+      <selection activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="4">
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A2:C2"/>
@@ -1410,7 +1440,7 @@
     <mergeCell ref="B15:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1889,6 +1919,12 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{E42251D7-B26D-493B-AB47-FC9D5E718532}" state="hidden">
+      <selection activeCell="H9" sqref="H9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3414,6 +3450,12 @@
       <c r="M45" s="10"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{E42251D7-B26D-493B-AB47-FC9D5E718532}" state="hidden" topLeftCell="A19">
+      <selection activeCell="D29" sqref="D29"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/144F20/Topic 2/Topic2DQ1Template.xlsx
+++ b/144F20/Topic 2/Topic2DQ1Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2831CAE7-2A0B-413A-880A-AC94D689AD7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{9849C032-CAEF-42A3-9421-7CD7863FF371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{E42251D7-B26D-493B-AB47-FC9D5E718532}" mergeInterval="0" personalView="1" xWindow="61" yWindow="61" windowWidth="1733" windowHeight="952" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{E42251D7-B26D-493B-AB47-FC9D5E718532}" mergeInterval="0" personalView="1" xWindow="61" yWindow="61" windowWidth="1733" windowHeight="952" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -619,7 +621,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -696,9 +700,6 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -749,12 +750,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -923,8 +937,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7F73379B-E737-4580-8C18-9CF0D1DE9E0F}">
-  <header guid="{7F73379B-E737-4580-8C18-9CF0D1DE9E0F}" dateTime="2020-09-25T14:19:12" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CAD98F8A-115D-4985-AB1A-B164582FA9A6}">
+  <header guid="{CAD98F8A-115D-4985-AB1A-B164582FA9A6}" dateTime="2020-11-14T12:16:54" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -939,7 +953,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{CAD98F8A-115D-4985-AB1A-B164582FA9A6}" name="Richard Ketchersid" id="-1739585321" dateTime="2020-11-14T12:16:54"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1208,7 +1224,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1224,20 +1240,20 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1"/>
     <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" thickTop="1" thickBot="1">
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="30"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="18" t="s">
@@ -1272,7 +1288,7 @@
         <v>16.27</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="28"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="22"/>
       <c r="G5" s="4" t="s">
         <v>7</v>
@@ -1391,11 +1407,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="25" t="s">
         <v>41</v>
       </c>
@@ -1405,30 +1421,30 @@
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1"/>
     <row r="15" spans="1:8" ht="14.4" customHeight="1">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cDBi4K1q9fUFb7oIRgVnAbOmZJZBw7TO+Ax1OqphCANkkk0O3CieOElvYP4QYXJeLyVZ0b/1zwiwysDdmx25zA==" saltValue="hGHcc6ftYXI2QgQtid9zcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <customSheetViews>
     <customSheetView guid="{E42251D7-B26D-493B-AB47-FC9D5E718532}">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -1439,13 +1455,18 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="B15:E17"/>
   </mergeCells>
+  <conditionalFormatting sqref="A5:E12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D$2="Your Name"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="55" id="{E9611DED-43D1-4477-97E6-AED09D5C24E8}">
+          <x14:cfRule type="expression" priority="56" id="{E9611DED-43D1-4477-97E6-AED09D5C24E8}">
             <xm:f>AND(_xlfn.ISFORMULA(A7),ABS(A7-Solution!A7)&lt;0.0005)</xm:f>
             <x14:dxf>
               <font>
@@ -1455,7 +1476,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="43" id="{5F8CF386-A089-4D42-9F11-FDD5F2503D44}">
+          <x14:cfRule type="expression" priority="44" id="{5F8CF386-A089-4D42-9F11-FDD5F2503D44}">
             <xm:f>OR(NOT(_xlfn.ISFORMULA(A7)),ABS(A7-Solution!A7)&gt;0.00005)</xm:f>
             <x14:dxf>
               <font>
@@ -1468,7 +1489,7 @@
           <xm:sqref>A7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="19" id="{B05D6209-C902-4E1A-826F-7E0CD3A64E0C}">
+          <x14:cfRule type="expression" priority="20" id="{B05D6209-C902-4E1A-826F-7E0CD3A64E0C}">
             <xm:f>OR(NOT(_xlfn.ISFORMULA(A9)),ABS(A9-Solution!A9)&gt;0.00005)</xm:f>
             <x14:dxf>
               <font>
@@ -1478,7 +1499,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="20" id="{25EC0DCC-B6E5-4399-A6D7-786F5E13A611}">
+          <x14:cfRule type="expression" priority="21" id="{25EC0DCC-B6E5-4399-A6D7-786F5E13A611}">
             <xm:f>AND(_xlfn.ISFORMULA(A9),ABS(A9-Solution!A9)&lt;0.0005)</xm:f>
             <x14:dxf>
               <font>
@@ -1491,7 +1512,7 @@
           <xm:sqref>A9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="17" id="{37254A07-2A8D-4F6C-BA1E-EA0FD2B84316}">
+          <x14:cfRule type="expression" priority="18" id="{37254A07-2A8D-4F6C-BA1E-EA0FD2B84316}">
             <xm:f>OR(NOT(_xlfn.ISFORMULA(A11)),ABS(A11-Solution!A11)&gt;0.00005)</xm:f>
             <x14:dxf>
               <font>
@@ -1501,7 +1522,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="18" id="{E4BEF26F-727E-49BB-874B-972F03E3A1D7}">
+          <x14:cfRule type="expression" priority="19" id="{E4BEF26F-727E-49BB-874B-972F03E3A1D7}">
             <xm:f>AND(_xlfn.ISFORMULA(A11),ABS(A11-Solution!A11)&lt;0.0005)</xm:f>
             <x14:dxf>
               <font>
@@ -1514,7 +1535,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="15" id="{9C603ADB-1A96-41C3-84C5-BEC09EC1465F}">
+          <x14:cfRule type="expression" priority="16" id="{9C603ADB-1A96-41C3-84C5-BEC09EC1465F}">
             <xm:f>OR(NOT(_xlfn.ISFORMULA(B8)),ABS(B8-Solution!B8)&gt;0.00005)</xm:f>
             <x14:dxf>
               <font>
@@ -1524,7 +1545,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="16" id="{D1C24D64-71DF-4B6C-957F-D66AFA78B590}">
+          <x14:cfRule type="expression" priority="17" id="{D1C24D64-71DF-4B6C-957F-D66AFA78B590}">
             <xm:f>AND(_xlfn.ISFORMULA(B8),ABS(B8-Solution!B8)&lt;0.0005)</xm:f>
             <x14:dxf>
               <font>
@@ -1537,7 +1558,7 @@
           <xm:sqref>B8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" id="{269E3E59-A51D-4BE3-8885-D8BA05C1D63A}">
+          <x14:cfRule type="expression" priority="14" id="{269E3E59-A51D-4BE3-8885-D8BA05C1D63A}">
             <xm:f>OR(NOT(_xlfn.ISFORMULA(B10)),ABS(B10-Solution!B10)&gt;0.00005)</xm:f>
             <x14:dxf>
               <font>
@@ -1547,7 +1568,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{8E744E33-0030-41D6-9A85-9F1F8934A0DF}">
+          <x14:cfRule type="expression" priority="15" id="{8E744E33-0030-41D6-9A85-9F1F8934A0DF}">
             <xm:f>AND(_xlfn.ISFORMULA(B10),ABS(B10-Solution!B10)&lt;0.0005)</xm:f>
             <x14:dxf>
               <font>
@@ -1560,7 +1581,7 @@
           <xm:sqref>B10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{D5C10216-7341-4B19-9524-42040A5DD605}">
+          <x14:cfRule type="expression" priority="12" id="{D5C10216-7341-4B19-9524-42040A5DD605}">
             <xm:f>OR(NOT(_xlfn.ISFORMULA(B12)),ABS(B12-Solution!B12)&gt;0.00005)</xm:f>
             <x14:dxf>
               <font>
@@ -1570,7 +1591,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="12" id="{92B3A3B4-5051-46D5-A368-82F587CCC5FB}">
+          <x14:cfRule type="expression" priority="13" id="{92B3A3B4-5051-46D5-A368-82F587CCC5FB}">
             <xm:f>AND(_xlfn.ISFORMULA(B12),ABS(B12-Solution!B12)&lt;0.0005)</xm:f>
             <x14:dxf>
               <font>
@@ -1583,7 +1604,7 @@
           <xm:sqref>B12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{953AC69A-F4AF-43F2-AE36-6E7095FA1E64}">
+          <x14:cfRule type="expression" priority="10" id="{953AC69A-F4AF-43F2-AE36-6E7095FA1E64}">
             <xm:f>OR(NOT(_xlfn.ISFORMULA(C9)),ABS(C9-Solution!C9)&gt;0.00005)</xm:f>
             <x14:dxf>
               <font>
@@ -1593,7 +1614,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="10" id="{1D0E7C80-DB20-404B-8665-01A1187C97FD}">
+          <x14:cfRule type="expression" priority="11" id="{1D0E7C80-DB20-404B-8665-01A1187C97FD}">
             <xm:f>AND(_xlfn.ISFORMULA(C9),ABS(C9-Solution!C9)&lt;0.0005)</xm:f>
             <x14:dxf>
               <font>
@@ -1606,7 +1627,7 @@
           <xm:sqref>C9:C12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{1D43F37E-8E51-486D-92C5-27AA9DA152FD}">
+          <x14:cfRule type="expression" priority="8" id="{1D43F37E-8E51-486D-92C5-27AA9DA152FD}">
             <xm:f>OR(NOT(_xlfn.ISFORMULA(C5)),ABS(C5-Solution!C5)&gt;0.00005)</xm:f>
             <x14:dxf>
               <font>
@@ -1616,7 +1637,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="8" id="{9B74A47D-16BC-4AB0-BE1C-358D3A1174DF}">
+          <x14:cfRule type="expression" priority="9" id="{9B74A47D-16BC-4AB0-BE1C-358D3A1174DF}">
             <xm:f>AND(_xlfn.ISFORMULA(C5),ABS(C5-Solution!C5)&lt;0.0005)</xm:f>
             <x14:dxf>
               <font>
@@ -1629,7 +1650,7 @@
           <xm:sqref>C5:C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{F9AA9CCE-0BC9-4ED8-AC6D-E232A8CECC7C}">
+          <x14:cfRule type="expression" priority="6" id="{F9AA9CCE-0BC9-4ED8-AC6D-E232A8CECC7C}">
             <xm:f>OR(NOT(_xlfn.ISFORMULA(D5)),ABS(D5-Solution!D5)&gt;0.00005)</xm:f>
             <x14:dxf>
               <font>
@@ -1639,7 +1660,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="6" id="{7B7B5EE6-8899-4576-A6B1-42BFF0BD7E50}">
+          <x14:cfRule type="expression" priority="7" id="{7B7B5EE6-8899-4576-A6B1-42BFF0BD7E50}">
             <xm:f>AND(_xlfn.ISFORMULA(D5),ABS(D5-Solution!D5)&lt;0.0005)</xm:f>
             <x14:dxf>
               <font>
@@ -1652,7 +1673,7 @@
           <xm:sqref>D5:D8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{9460091A-5324-4F81-B241-D4E901A1DC12}">
+          <x14:cfRule type="expression" priority="4" id="{9460091A-5324-4F81-B241-D4E901A1DC12}">
             <xm:f>OR(NOT(_xlfn.ISFORMULA(D11)),ABS(D11-Solution!D11)&gt;0.00005)</xm:f>
             <x14:dxf>
               <font>
@@ -1662,7 +1683,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="4" id="{B31CD53D-D4C9-459D-8E49-B20EF11BD29F}">
+          <x14:cfRule type="expression" priority="5" id="{B31CD53D-D4C9-459D-8E49-B20EF11BD29F}">
             <xm:f>AND(_xlfn.ISFORMULA(D11),ABS(D11-Solution!D11)&lt;0.0005)</xm:f>
             <x14:dxf>
               <font>
@@ -1675,7 +1696,7 @@
           <xm:sqref>D11:D12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{1AE492DD-50AC-4984-830A-0679E869B8C8}">
+          <x14:cfRule type="expression" priority="2" id="{1AE492DD-50AC-4984-830A-0679E869B8C8}">
             <xm:f>OR(NOT(_xlfn.ISFORMULA(E5)),ABS(E5-Solution!E5)&gt;0.00005)</xm:f>
             <x14:dxf>
               <font>
@@ -1685,7 +1706,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{F4D92430-B5A7-4F88-A0AF-FB0FDFD65D87}">
+          <x14:cfRule type="expression" priority="3" id="{F4D92430-B5A7-4F88-A0AF-FB0FDFD65D87}">
             <xm:f>AND(_xlfn.ISFORMULA(E5),ABS(E5-Solution!E5)&lt;0.0005)</xm:f>
             <x14:dxf>
               <font>

--- a/144F20/Topic 2/Topic2DQ1Template.xlsx
+++ b/144F20/Topic 2/Topic2DQ1Template.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{9849C032-CAEF-42A3-9421-7CD7863FF371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{C3636982-6454-403D-B6DA-C549A1E2AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="915" windowWidth="25995" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percents" sheetId="1" r:id="rId1"/>
-    <sheet name="Solution" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Random" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Solution" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Random" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Original Amount</t>
   </si>
@@ -218,6 +219,9 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +231,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +279,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -640,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -703,6 +715,9 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -750,8 +765,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -759,16 +774,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -923,6 +928,16 @@
         <color rgb="FF00B050"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -937,12 +952,13 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CAD98F8A-115D-4985-AB1A-B164582FA9A6}">
-  <header guid="{CAD98F8A-115D-4985-AB1A-B164582FA9A6}" dateTime="2020-11-14T12:16:54" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="3">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5C423E65-871E-4286-ACD0-3800CFF68550}">
+  <header guid="{5C423E65-871E-4286-ACD0-3800CFF68550}" dateTime="2022-07-20T13:48:49" maxSheetId="5" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
+      <sheetId val="4"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -954,7 +970,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{CAD98F8A-115D-4985-AB1A-B164582FA9A6}" name="Richard Ketchersid" id="-1739585321" dateTime="2020-11-14T12:16:54"/>
+  <userInfo guid="{5C423E65-871E-4286-ACD0-3800CFF68550}" name="Richard Ketchersid" id="-1739556272" dateTime="2022-07-20T13:48:49"/>
 </users>
 </file>
 
@@ -1227,33 +1243,33 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1"/>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="30" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="43" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" thickTop="1" thickBot="1">
-      <c r="G3" s="28" t="s">
+    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="G3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="18" t="s">
@@ -1335,7 +1351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="A8" s="21">
         <f ca="1">ROUND(100*Random!D15,2)</f>
         <v>66.45</v>
@@ -1354,7 +1370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickTop="1">
+    <row r="9" spans="1:8" ht="15.75" thickTop="1">
       <c r="A9" s="23"/>
       <c r="B9" s="1">
         <f ca="1">ROUND(100*Random!D24,2)</f>
@@ -1406,12 +1422,12 @@
         <v>-0.16739999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="25" t="s">
         <v>41</v>
       </c>
@@ -1419,26 +1435,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1"/>
-    <row r="15" spans="1:8" ht="14.4" customHeight="1">
-      <c r="B15" s="34" t="s">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:8" ht="14.45" customHeight="1">
+      <c r="B15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-    </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1">
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cDBi4K1q9fUFb7oIRgVnAbOmZJZBw7TO+Ax1OqphCANkkk0O3CieOElvYP4QYXJeLyVZ0b/1zwiwysDdmx25zA==" saltValue="hGHcc6ftYXI2QgQtid9zcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
@@ -1456,7 +1472,7 @@
     <mergeCell ref="B15:E17"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:E12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$D$2="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1725,6 +1741,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8147CBD-156A-4F0A-BF12-881DFBEF92E3}">
+  <dimension ref="C5:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="3:8">
+      <c r="C5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{E42251D7-B26D-493B-AB47-FC9D5E718532}" state="hidden">
+      <selection activeCell="C5" sqref="C5:H11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="C5:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A45589-C87D-4057-852E-A6F32C73CC26}">
   <dimension ref="A4:E12"/>
   <sheetViews>
@@ -1732,13 +1832,13 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5">
@@ -1950,7 +2050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E43F2B4-801D-47B0-8D9E-A7895490B85A}">
   <dimension ref="A1:W45"/>
   <sheetViews>
@@ -1958,7 +2058,7 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>

--- a/144F20/Topic 2/Topic2DQ1Template.xlsx
+++ b/144F20/Topic 2/Topic2DQ1Template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{C3636982-6454-403D-B6DA-C549A1E2AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{EDBBA819-AFBE-4435-A3A7-9D5A2321AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="915" windowWidth="25995" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percents" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Solution" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Random" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Solution" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Random" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -952,13 +952,21 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5C423E65-871E-4286-ACD0-3800CFF68550}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1689A0DF-255D-4085-B2FB-E10FA6E69055}" diskRevisions="1" version="2">
   <header guid="{5C423E65-871E-4286-ACD0-3800CFF68550}" dateTime="2022-07-20T13:48:49" maxSheetId="5" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1689A0DF-255D-4085-B2FB-E10FA6E69055}" dateTime="2022-07-20T14:39:24" maxSheetId="5" userName="Richard Ketchersid" r:id="rId2">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="2"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -968,9 +976,17 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E42251D7-B26D-493B-AB47-FC9D5E718532}" action="delete"/>
+  <rcv guid="{E42251D7-B26D-493B-AB47-FC9D5E718532}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{5C423E65-871E-4286-ACD0-3800CFF68550}" name="Richard Ketchersid" id="-1739556272" dateTime="2022-07-20T13:48:49"/>
+  <userInfo guid="{1689A0DF-255D-4085-B2FB-E10FA6E69055}" name="Richard Ketchersid" id="-1739564910" dateTime="2022-07-20T14:38:56"/>
 </users>
 </file>
 
@@ -1741,90 +1757,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8147CBD-156A-4F0A-BF12-881DFBEF92E3}">
-  <dimension ref="C5:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="5" spans="3:8">
-      <c r="C5" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{E42251D7-B26D-493B-AB47-FC9D5E718532}" state="hidden">
-      <selection activeCell="C5" sqref="C5:H11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-  </customSheetViews>
-  <mergeCells count="1">
-    <mergeCell ref="C5:H11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A45589-C87D-4057-852E-A6F32C73CC26}">
   <dimension ref="A4:E12"/>
   <sheetViews>
@@ -2050,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E43F2B4-801D-47B0-8D9E-A7895490B85A}">
   <dimension ref="A1:W45"/>
   <sheetViews>
@@ -3579,4 +3511,88 @@
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8147CBD-156A-4F0A-BF12-881DFBEF92E3}">
+  <dimension ref="C5:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="3:8">
+      <c r="C5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{E42251D7-B26D-493B-AB47-FC9D5E718532}" state="hidden">
+      <selection activeCell="C5" sqref="C5:H11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="C5:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>